--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>001984</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>上投摩根中国生物医药混合（QDII）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>004877</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>004878</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>004879</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001984</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004877</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004878</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004879</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006240</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合A</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006241</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合C</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7828</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.84</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.66</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>005894</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>华夏优势精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>005883</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>华宝港股通香港精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>006240</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>中融医疗健康精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005883</t>
+          <t>006241</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝港股通香港精选混合</t>
+          <t>中融医疗健康精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005894</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏优势精选股票</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3463</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3830</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>169.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3643</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0569</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3405,4 +3406,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3414,7 +3415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,17 +3426,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3445,14 +3466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.14</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>297.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3461,14 +3504,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.5</v>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3477,14 +3542,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.85</v>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3493,13 +3580,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.68</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3699,7 +3700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3710,17 +3711,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3730,14 +3751,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.13</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3746,14 +3789,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.14</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3762,14 +3827,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.5</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3778,14 +3865,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.85</v>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3794,13 +3903,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7910</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.68</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4022,7 +4023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4033,17 +4034,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4053,14 +4074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.38</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4069,14 +4112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.13</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4085,14 +4150,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.14</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4101,14 +4188,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.5</v>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4117,14 +4226,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.85</v>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4133,13 +4264,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-0.0002</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.68</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>21.74</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>16.38</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>13.13</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>19.14</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>18.5</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>3.85</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.68</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2021,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2913,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4147,7 +4372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4545,7 +4770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03759-康龙化成.xlsx
+++ b/数据整理/stocks/港股/03759-康龙化成.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>2.89</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>21.74</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>16.38</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>13.13</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>19.14</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>18.5</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>3.85</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.68</v>
       </c>
     </row>
@@ -616,7 +633,1373 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1640,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1962,7 +3345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2246,7 +3629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3138,7 +4521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4372,7 +5755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4768,440 +6151,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1025</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001984</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9825</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004877</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1408</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004878</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1408</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004879</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1408</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519601</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通中国海外精选混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>